--- a/DPsheets.xlsx
+++ b/DPsheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080" activeTab="3"/>
+    <workbookView windowWidth="12070" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F1115"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>人均</t>
     </r>
     <r>
@@ -964,23 +970,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1107,7 +1102,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -1119,34 +1114,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0">
@@ -1231,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1274,28 +1269,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3983,6 +3975,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f5236889-ae09-4d41-9089-edbff4c0fa3b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6987,845 +6984,888 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F2" sqref="I10 F2:F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>49843.1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>2183</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>1247.15</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>6.09</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>0.0555</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>0.1596</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>0.1864</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>18024.3</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>1364</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>500.02</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>4.99</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>0.0391</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>0.092</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>0.1178</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="18" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>47526.9</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>7378</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>1828.84</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>5.9</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0.0116</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>0.0372</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>0.0409</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>25494.7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>3446</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>922.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>6.94</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>0.019</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.0631</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.0786</v>
       </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>26314.6</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>2388</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>783.65</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>5.52</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0.0264</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0.0881</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.0954</v>
       </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:8">
-      <c r="A7" s="18" t="s">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>32612.7</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>4155</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>740.91</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>4.32</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>0.031</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.0796</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.0834</v>
       </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>14361.2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>2317</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>539.37</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>4.17</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>0.047</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.123</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>0.1278</v>
       </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>16476.9</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>3029</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>616.1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>3.35</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>0.0246</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>0.0818</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.0869</v>
       </c>
-    </row>
-    <row r="10" ht="17.25" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>53926.7</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>2480</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>1233.85</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>4.75</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>0.0363</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>0.1218</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>0.1632</v>
       </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>137008</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>8526</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>2757.9</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>4.98</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>0.0188</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0.0679</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>0.1121</v>
       </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:9">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>90130.6</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>6670</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>2474.82</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>6.17</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>0.0226</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>0.0512</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.0661</v>
       </c>
-    </row>
-    <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:9">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>50625.2</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>6123</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>1558.68</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>6.17</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>0.0139</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>0.0543</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="14" ht="17.25" spans="1:8">
-      <c r="A14" s="18" t="s">
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:9">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>57761</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>4193</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>1287.43</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>6.95</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>0.0233</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>0.0614</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>0.0661</v>
       </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:8">
-      <c r="A15" s="18" t="s">
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:9">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>34202.5</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>4502</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>1393.43</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>6.65</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>0.0138</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>0.0409</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>0.0442</v>
       </c>
-    </row>
-    <row r="16" ht="17.25" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:9">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>98565.8</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>10080</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>2748.74</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>6.42</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>0.0175</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>0.039</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>0.0423</v>
       </c>
-    </row>
-    <row r="17" ht="17.25" spans="1:8">
-      <c r="A17" s="18" t="s">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:9">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <v>63590</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>9785</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>2059.66</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>7.78</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>0.0097</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.0289</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.0366</v>
       </c>
-    </row>
-    <row r="18" ht="17.25" spans="1:8">
-      <c r="A18" s="18" t="s">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>60013</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>5834</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>1390.05</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>5.38</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>0.0228</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>0.0589</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>0.0625</v>
       </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:8">
-      <c r="A19" s="18" t="s">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>53231</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>6539</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>1601.41</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>5.89</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>0.0169</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>0.0448</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>0.0588</v>
       </c>
-    </row>
-    <row r="20" ht="17.25" spans="1:8">
-      <c r="A20" s="18" t="s">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:9">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>141633.8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>12780</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>4055.57</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>8.89</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>0.0169</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>0.0364</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>0.0525</v>
       </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:8">
-      <c r="A21" s="18" t="s">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:9">
+      <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>28649.4</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>5013</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>1226.35</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>8.37</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>0.0139</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>0.0418</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>0.0466</v>
       </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:8">
-      <c r="A22" s="18" t="s">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:9">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>7935.7</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>1048</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>362.4</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>9.37</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>0.0185</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>0.0825</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>0.0933</v>
       </c>
-    </row>
-    <row r="23" ht="17.25" spans="1:8">
-      <c r="A23" s="18" t="s">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:9">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>32193.2</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>3190</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>858.62</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>5.99</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>0.0268</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>0.0677</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>0.0748</v>
       </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:8">
-      <c r="A24" s="18" t="s">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:9">
+      <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>64697</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>8364</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>1969.68</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>6.41</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>0.0177</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>0.0485</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>0.0741</v>
       </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:8">
-      <c r="A25" s="18" t="s">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:9">
+      <c r="A25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>22667.1</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>3860</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>1209.83</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>10.74</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>0.0153</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>0.0605</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>0.0682</v>
       </c>
-    </row>
-    <row r="26" ht="17.25" spans="1:8">
-      <c r="A26" s="18" t="s">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:9">
+      <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>31534.1</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>4655</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>1197.62</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>8.62</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>0.0115</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>0.0373</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>0.0427</v>
       </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:8">
-      <c r="A27" s="18" t="s">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:9">
+      <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>2764.9</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>370</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>333.63</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>13.87</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" ht="17.25" spans="1:8">
-      <c r="A28" s="18" t="s">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:9">
+      <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>35538.8</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>3953</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>1119.54</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>7.36</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <v>0.0296</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>0.0767</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>0.082</v>
       </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:8">
-      <c r="A29" s="18" t="s">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:9">
+      <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>13002.9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>2458</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>723.88</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>8</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>0.0296</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>0.0686</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>0.076</v>
       </c>
-    </row>
-    <row r="30" ht="17.25" spans="1:8">
-      <c r="A30" s="18" t="s">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:9">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>3950.8</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>593</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>232.08</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>10.11</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>0.0262</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>0.1023</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>0.1095</v>
       </c>
-    </row>
-    <row r="31" ht="17.25" spans="1:8">
-      <c r="A31" s="18" t="s">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:9">
+      <c r="A31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>5502.8</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>729</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>225.39</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>10.97</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>0.0204</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>0.0785</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>0.0838</v>
       </c>
-    </row>
-    <row r="32" ht="17.25" spans="1:8">
-      <c r="A32" s="18" t="s">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:9">
+      <c r="A32" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>20534.1</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>2623</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>1215.82</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>9.42</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>0.0331</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>0.1238</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>0.1365</v>
       </c>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7875,7 +7915,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -7908,7 +7948,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -7941,7 +7981,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -7974,7 +8014,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
@@ -8007,7 +8047,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -8040,7 +8080,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
@@ -8073,7 +8113,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
@@ -8106,7 +8146,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
@@ -8139,7 +8179,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
@@ -8172,7 +8212,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
@@ -8205,7 +8245,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1">
@@ -8238,7 +8278,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1">
@@ -8271,7 +8311,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1">
@@ -8304,7 +8344,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1">
@@ -8337,7 +8377,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1">
@@ -8370,7 +8410,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1">
@@ -8403,7 +8443,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1">
@@ -8436,7 +8476,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1">
@@ -8469,7 +8509,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1">
@@ -8502,7 +8542,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1">
@@ -8535,7 +8575,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1">
@@ -8568,7 +8608,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1">
@@ -8601,7 +8641,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1">
@@ -8634,7 +8674,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
@@ -8667,7 +8707,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1">
@@ -8700,7 +8740,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1">
@@ -8729,7 +8769,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1">
@@ -8762,7 +8802,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1">
@@ -8795,7 +8835,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1">
@@ -8828,7 +8868,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1">
@@ -8861,7 +8901,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="1">
@@ -9260,7 +9300,7 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
@@ -9300,10 +9340,10 @@
         <f>数据!F2*100</f>
         <v>5.55</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="9">
         <v>228323.8662</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9320,10 +9360,10 @@
         <f>数据!F3*100</f>
         <v>3.91</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="9">
         <v>132142.9619</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9340,10 +9380,10 @@
         <f>数据!F4*100</f>
         <v>1.16</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="9">
         <v>64417.05069</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9360,10 +9400,10 @@
         <f>数据!F5*100</f>
         <v>1.9</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>73983.45908</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9380,10 +9420,10 @@
         <f>数据!F6*100</f>
         <v>2.64</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="9">
         <v>110195.1424</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9400,10 +9440,10 @@
         <f>数据!F7*100</f>
         <v>3.1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="9">
         <v>78490.25271</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9420,10 +9460,10 @@
         <f>数据!F8*100</f>
         <v>4.7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="9">
         <v>61981.87311</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9440,10 +9480,10 @@
         <f>数据!F9*100</f>
         <v>2.46</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="9">
         <v>54397.16078</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9460,10 +9500,10 @@
         <f>数据!F10*100</f>
         <v>3.63</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>217446.371</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9480,10 +9520,10 @@
         <f>数据!F11*100</f>
         <v>1.88</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <v>160694.3467</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9500,10 +9540,10 @@
         <f>数据!F12*100</f>
         <v>2.26</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>135128.3358</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9520,10 +9560,10 @@
         <f>数据!F13*100</f>
         <v>1.39</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="9">
         <v>82680.38543</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9540,10 +9580,10 @@
         <f>数据!F14*100</f>
         <v>2.33</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="9">
         <v>137755.7834</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9560,10 +9600,10 @@
         <f>数据!F15*100</f>
         <v>1.38</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <v>75971.79032</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9580,10 +9620,10 @@
         <f>数据!F16*100</f>
         <v>1.75</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="9">
         <v>97783.53175</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9600,10 +9640,10 @@
         <f>数据!F17*100</f>
         <v>0.97</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="9">
         <v>64987.22534</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9620,10 +9660,10 @@
         <f>数据!F18*100</f>
         <v>2.28</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="9">
         <v>102867.6723</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9640,10 +9680,10 @@
         <f>数据!F19*100</f>
         <v>1.69</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="9">
         <v>81405.41367</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9660,10 +9700,10 @@
         <f>数据!F20*100</f>
         <v>1.69</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="9">
         <v>110824.5696</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9680,10 +9720,10 @@
         <f>数据!F21*100</f>
         <v>1.39</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="9">
         <v>57150.20946</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9700,10 +9740,10 @@
         <f>数据!F22*100</f>
         <v>1.85</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="9">
         <v>75722.32824</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9720,10 +9760,10 @@
         <f>数据!F23*100</f>
         <v>2.68</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="9">
         <v>100919.1223</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9740,10 +9780,10 @@
         <f>数据!F24*100</f>
         <v>1.77</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="9">
         <v>77351.74558</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9760,10 +9800,10 @@
         <f>数据!F25*100</f>
         <v>1.53</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="9">
         <v>58723.05699</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9780,10 +9820,10 @@
         <f>数据!F26*100</f>
         <v>1.15</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="9">
         <v>67742.4275</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9797,10 +9837,10 @@
         <v>12.0666208542804</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="14">
+      <c r="D27" s="9">
         <v>74727.02703</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="26" spans="1:5">
       <c r="A28" s="3" t="str">
@@ -9815,10 +9855,10 @@
         <f>数据!F28*100</f>
         <v>2.96</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="9">
         <v>89903.36453</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9835,10 +9875,10 @@
         <f>数据!F29*100</f>
         <v>2.96</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="9">
         <v>52900.32547</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9855,10 +9895,10 @@
         <f>数据!F30*100</f>
         <v>2.62</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="9">
         <v>66623.94604</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9875,10 +9915,10 @@
         <f>数据!F31*100</f>
         <v>2.04</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="9">
         <v>75484.22497</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9895,19 +9935,19 @@
         <f>数据!F32*100</f>
         <v>3.31</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="9">
         <v>78284.78841</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3"/>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="12" t="s">
         <v>77</v>
       </c>
     </row>
